--- a/dataset/day_12.xlsx
+++ b/dataset/day_12.xlsx
@@ -843,7 +843,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>G((Corridor.Speaker.on) -&gt; (F[0, 1*60] !(Corridor.Speaker.on)))</t>
+          <t>#10</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>G (TeaRoom.human_undetected &amp; !(TeaRoom.WaterDispenser.on))</t>
+          <t>#5</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>G(Lab.humidity_up -&gt; (F[0, 60*60] !Lab.humidity_up))</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -10491,7 +10491,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -13503,7 +13503,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -15435,7 +15435,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -19567,7 +19567,7 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>G(Lab.humidity_up -&gt; (F[0, 60*60] !Lab.humidity_up))</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -27819,7 +27819,7 @@
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;Lab.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
@@ -30231,7 +30231,7 @@
       </c>
       <c r="H742" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I742" t="inlineStr">
@@ -33763,7 +33763,7 @@
       </c>
       <c r="H830" t="inlineStr">
         <is>
-          <t>G!(Lab.temperature_up&amp;Lab.temperature_down)</t>
+          <t>#1</t>
         </is>
       </c>
       <c r="I830" t="inlineStr">
@@ -34175,7 +34175,7 @@
       </c>
       <c r="H840" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I840" t="inlineStr">
@@ -34747,7 +34747,7 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
@@ -36039,7 +36039,7 @@
       </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I886" t="inlineStr">
@@ -37971,7 +37971,7 @@
       </c>
       <c r="H934" t="inlineStr">
         <is>
-          <t>G!(Lab.temperature_up&amp;Lab.temperature_down)</t>
+          <t>#1</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
@@ -38903,7 +38903,7 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
@@ -39155,7 +39155,7 @@
       </c>
       <c r="H963" t="inlineStr">
         <is>
-          <t>G(MeetingRoomOne.human_undetected -&gt; (F[0, 30] MeetingRoomOne.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I963" t="inlineStr">
@@ -43927,7 +43927,7 @@
       </c>
       <c r="H1082" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I1082" t="inlineStr">
@@ -45579,7 +45579,7 @@
       </c>
       <c r="H1123" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1123" t="inlineStr">
@@ -47231,7 +47231,7 @@
       </c>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I1164" t="inlineStr">
@@ -47563,7 +47563,7 @@
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>G(Lab.humidity_up -&gt; (F[0, 60*60] !Lab.humidity_up))</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="I1172" t="inlineStr">
@@ -49055,7 +49055,7 @@
       </c>
       <c r="H1209" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I1209" t="inlineStr">
@@ -51827,7 +51827,7 @@
       </c>
       <c r="H1278" t="inlineStr">
         <is>
-          <t>G!(Lab.temperature_up&amp;Lab.temperature_down)</t>
+          <t>#1</t>
         </is>
       </c>
       <c r="I1278" t="inlineStr">
@@ -52159,7 +52159,7 @@
       </c>
       <c r="H1286" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1286" t="inlineStr">
@@ -53531,7 +53531,7 @@
       </c>
       <c r="H1320" t="inlineStr">
         <is>
-          <t>G(MeetingRoomOne.human_undetected -&gt; (F[0, 30] MeetingRoomOne.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I1320" t="inlineStr">
@@ -54383,7 +54383,7 @@
       </c>
       <c r="H1341" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1341" t="inlineStr">
@@ -60035,7 +60035,7 @@
       </c>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>G!(Lab.temperature_up&amp;Lab.temperature_down)</t>
+          <t>#1</t>
         </is>
       </c>
       <c r="I1482" t="inlineStr">
@@ -60127,7 +60127,7 @@
       </c>
       <c r="H1484" t="inlineStr">
         <is>
-          <t>G (TeaRoom.human_undetected &amp; !(TeaRoom.MicrowaveOven.on))</t>
+          <t>#4</t>
         </is>
       </c>
       <c r="I1484" t="inlineStr">
@@ -60619,7 +60619,7 @@
       </c>
       <c r="H1496" t="inlineStr">
         <is>
-          <t>G(MeetingRoomTwo.human_undetected -&gt; (F[0, 30] MeetingRoomTwo.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I1496" t="inlineStr">
@@ -62911,7 +62911,7 @@
       </c>
       <c r="H1553" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1553" t="inlineStr">
@@ -66803,7 +66803,7 @@
       </c>
       <c r="H1650" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1650" t="inlineStr">
@@ -71215,7 +71215,7 @@
       </c>
       <c r="H1760" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I1760" t="inlineStr">
